--- a/publipostage/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00934986</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Study of Natural Killer Cells Function in Untreated Patients With Chronic Lymphocytic Leukemia</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>LLC-NK</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00908869</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Combination of Continuous Low Doses of Vinorelbine, Cyclophosphamide and Interferon Alpha 2b for Antiangiogenic/Antivascular Effect in Adult Advanced Neoplasm</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>METRO1</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00925418</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Randomized Trial Evaluating the Cryotherapy in the Prevention of Nails Toxicity Induced by Taxotere® in Patient Treated for Breast or Prostate Cancer.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>CRYO1</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00930085</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Evaluation of Predictive Proteic Profile on Mortality in the Acute Phase of Septic Shock in Cancer Patients</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>PROTEOHSEPS</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,34 +661,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT00918853</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Prospective Evaluation of the Resection Margins and the Ganglionic Status Using a Quality Standard Resection for Adenocarcinoma of the Head of the Pancreas.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>MRP</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -673,32 +703,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT00930410</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Intra-ductal Confocal Endomicroscopy for Characterization of Pancreas and Bile Duct Tumor</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>EMID</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -710,32 +745,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT00894049</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>A Multicenter Prospective Randomized Study Comparing Non Myeloablative (Flu-TBI) and Reduced Intensity (FLU-BU-ATG) Conditioning in Allogenic Transplantation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>ITAC02-01</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -747,32 +787,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT01521702</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Adjuvant Gemcitabine Versus NEOadjuvant Gemcitabine/Oxaliplatin Plus Adjuvant Gemcitabine in Resectable PAncreatic Cancer: a Randomized Multicenter Phase III Study</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>NEOPAC</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -784,28 +829,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT02525250</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Pilot Study Immunomonitoring NK Cells in Patients With Myeloid Malignancies</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -817,32 +867,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT01819558</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT02487836</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Etude Phase I/II d'immunothérapie Par protéine recWT1-A10+AS01B après Greffe allogénique de Cellules Souches</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ALLO-WT1</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+          <t>Phase II Trial Evaluating the Efficacy of Laying a Biliary Stent for Producing a Heavy Chemotherapy in Unresectable Pancreatic Adenocarcinomas</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PROPAC</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -854,32 +909,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT02487836</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT01819558</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Phase II Trial Evaluating the Efficacy of Laying a Biliary Stent for Producing a Heavy Chemotherapy in Unresectable Pancreatic Adenocarcinomas</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PROPAC</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Etude Phase I/II d'immunothérapie Par protéine recWT1-A10+AS01B après Greffe allogénique de Cellules Souches</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ALLO-WT1</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -891,32 +951,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT02174887</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>A Unicentric, Open Label, Mechanism of Action Trial, on the Biological Effect of Nab-paclitaxel Combined to Gemcitabine, in Patients With Metastatic Pancreatic Adenocarcinoma</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>MOAnab1</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -928,28 +993,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT01499537</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Prospective Randomized Study of PTC and EUS-guided Drainage of the Bile Duct in Patients With Malignant or Post-operative Jaundice After Failure or Impossibility to Perform Endoscopic Retrograde Cholangiography</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -961,32 +1031,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT01190345</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT02526134</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Phase II" Proof of Concept " Trial Evaluating Anti Cancer Stem Cell Activity of Pre-operative Bevacizumab in Combination With Chemotherapy in Breast Cancer</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AVASTEM</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Placing Trust in Endoscopic Ultrasonography: Impact on Planning Conformal Radiotherapy of Cancer of the Esophagus and Rectum</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FIDUCOR</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -998,33 +1073,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01692873</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2009-014773-40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Research for Prognostic and Predictive Biomarkers of Therapeutic Response in Pancreatic Tumors - PACAomics / IPC 2011-004</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PACAomics</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
+          <t>Essai de phase II de preuve du concept : Evaluation de l’activité anti-cellules souches cancéreuses du bevacizumab administré en combinaison à la chimiothérapie néoadjuvante dans les cancers du sein</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1035,33 +1111,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT02526134</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01692873</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Placing Trust in Endoscopic Ultrasonography: Impact on Planning Conformal Radiotherapy of Cancer of the Esophagus and Rectum</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FIDUCOR</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Research for Prognostic and Predictive Biomarkers of Therapeutic Response in Pancreatic Tumors - PACAomics / IPC 2011-004</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PACAomics</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1070,30 +1151,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2009-014773-40</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+          <t>NCT01190345</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Essai de phase II de preuve du concept : Evaluation de l’activité anti-cellules souches cancéreuses du bevacizumab administré en combinaison à la chimiothérapie néoadjuvante dans les cancers du sein</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="b">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Phase II" Proof of Concept " Trial Evaluating Anti Cancer Stem Cell Activity of Pre-operative Bevacizumab in Combination With Chemotherapy in Breast Cancer</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>AVASTEM</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1105,28 +1195,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT01942980</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Double-blind Randomized Multicenter Phase III Study Evaluation of the Efficacy of Hippocampal Avoidance on the Cognitive Toxicity of Whole-brain Radiation Therapy After Surgical Resection of Single Brain Metastasis of Breast Cancer.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1138,34 +1233,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT01853358</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Phase I of Infusion of Selected Donor NK Cells After HLA Identical Allogeneic Stem Cell Transplantation Prepared With Reduced Intensity Conditioning - DLI-NK/IPC 2012-003</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>DLI-NK</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1175,32 +1275,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>NCT03686592</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Psychological Effect of the pancréatectomy: a Feeling of Strangeness</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>REPPSE</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1212,32 +1317,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT01939327</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>A Phase II Single-arm, Open-label Study to Evaluate the Safety and Efficacy of Combination Lenalidomide (Revlimid®) With Rituximab in Subjets With Relapsed or Refractory Diffuse Large b Cell Non-Hodgkin's Lymphoma.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1247,72 +1357,82 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>NCT02483325</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Phase II Study Evaluating the Efficacy of Allogeneic Transplant Conditioning With Adaptive Dose Busulfan Intravenous (Busilvex®) in Patients at High Risk of Carrying Blood Diseases</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BX-PK</t>
+        </is>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>2014-000758-12</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Study of pharmacokinetics of intravenous busulfan (Busilvex ®) in the conditioning allogeneic transplantation in patients with high-risk hematological disease. 
  Etude de pharmacocinétique du Busulfan intra-veineux (Busilvex®) dans le conditionnement d’une greffe allogénique chez des patients à haut risque porteurs d’hémopathie.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>BX-PK-IPC2013-016</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>NCT02483325</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Phase II Study Evaluating the Efficacy of Allogeneic Transplant Conditioning With Adaptive Dose Busulfan Intravenous (Busilvex®) in Patients at High Risk of Carrying Blood Diseases</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>BX-PK</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1324,32 +1444,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT04401046</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02623309</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>COVID-19 EPIDEMIC Reorganisation of Cancer Patient Care: Self- Evaluation of Potential Post-traumatic Stress Disorder</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>COVID-TRAUMA</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1361,32 +1478,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT03595800</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT04401046</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Extension of a Phase III Randomized Study of Allogeneic Hematopoietic Stem Cell Transplantation From One Haplotype Mismatch Related Donor or From an Unrelated Donor to Younger Patients Eligible for Reduced-intensity Conditioning Regimen-HaploMUD-RIC-01</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HaploMUD-RIC</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>COVID-19 EPIDEMIC Reorganisation of Cancer Patient Care: Self- Evaluation of Potential Post-traumatic Stress Disorder</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>COVID-TRAUMA</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1398,24 +1520,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02623309</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT03595800</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="b">
-        <v>0</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Extension of a Phase III Randomized Study of Allogeneic Hematopoietic Stem Cell Transplantation From One Haplotype Mismatch Related Donor or From an Unrelated Donor to Younger Patients Eligible for Reduced-intensity Conditioning Regimen-HaploMUD-RIC-01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>HaploMUD-RIC</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1427,32 +1562,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>NCT03679338</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Prospective Evaluation of the Ablation Therapy With Bipolar Radio Frequency for Nonresectable Bile Duct Cancer</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>RFA-BILIAIRE</t>
         </is>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1464,32 +1604,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT03961893</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT04112654</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Panoramic Screening by Complete Colonoscopy in the Management of Colorectal Adenomas</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>G-EYE-ADR</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Prospective Randomized Evaluation of the Contribution of Low-pressure Intra-abdominal Insufflation for Laparoscopic Colic Resection</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>LoPreCol</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1501,32 +1646,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT04112654</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT03961893</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Prospective Randomized Evaluation of the Contribution of Low-pressure Intra-abdominal Insufflation for Laparoscopic Colic Resection</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LoPreCol</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Panoramic Screening by Complete Colonoscopy in the Management of Colorectal Adenomas</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>G-EYE-ADR</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1538,28 +1688,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>NCT02860793</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Role of PTK-7 in Acute Myeloid Leukemias: Impact of PTK7 Serum Marker and ex Vivo Studies to Decipher the Role of PTK7</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>LAM-PTK7</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1571,24 +1726,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>NCT00840684</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>A PHASE I-II MULTICENTER STUDY OF THE CLORETAZINE-DAUNORUBICIN-ARACYTINE COMBINATION FOR THE TREATMENT OF ACUTE MYELOID LEUKEMIA (AML) WITH UNFAVORABLE CYTOGENETICS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1600,24 +1760,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>NCT00540956</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Descriptive Study Evaluating the Presence and Function of Natural Killer Cells in Elderly Patients With Acute Myeloid Leukemia in First Remission.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1629,24 +1794,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>NCT00963521</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Pilot Study of Therapeutic Vaccination by Leukemic Blasts in Vitro Differentiated Dendritic Cells From Patients With Acute Myelogenous Leukemia in Complete Remission</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1658,24 +1828,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>NCT00802568</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Pilot Study of Allogeneic Hematopoietic Stem Cell Transplantation Following Reduced Intensity Conditioning in Treating Patients With Multiple Myeloma</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1687,24 +1862,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>NCT00806767</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Phase II Study of Allogeneic Transplant of Hematopoietic Stem Cells From a Compatible Family Donor in the Treatment of Patients Over 55 Years With Hematological Malignancies</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -858,6 +903,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -900,6 +950,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -942,6 +997,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -984,6 +1044,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1022,6 +1087,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1064,6 +1134,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1102,6 +1177,7 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1144,6 +1220,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1186,6 +1267,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1224,6 +1310,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1266,6 +1357,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1308,6 +1404,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1350,6 +1451,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1392,6 +1498,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1435,6 +1546,7 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1469,6 +1581,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1511,6 +1628,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1553,6 +1675,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1595,6 +1722,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1637,6 +1769,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1678,6 +1815,11 @@
       </c>
       <c r="J30" t="b">
         <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1717,6 +1859,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1751,6 +1898,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1785,6 +1937,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1819,6 +1976,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1853,6 +2015,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1886,6 +2053,11 @@
       </c>
       <c r="J36" t="b">
         <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
